--- a/R/recuction_emission_per_capita.xlsx
+++ b/R/recuction_emission_per_capita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ee1c5c25fb64308/Dokumente/GitHub/GEO885/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC1AC35-7FF8-41F1-A517-631D3F746AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{6FC1AC35-7FF8-41F1-A517-631D3F746AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80A62C81-A149-4288-957E-CADF7656C099}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="16920" windowHeight="10450" xr2:uid="{B5B9485F-0C94-4C3B-9F68-C929287F1A42}"/>
+    <workbookView xWindow="16690" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B5B9485F-0C94-4C3B-9F68-C929287F1A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -61,7 +61,25 @@
     <t>reduction short dist flights</t>
   </si>
   <si>
-    <t xml:space="preserve">per capita </t>
+    <t xml:space="preserve">mean emissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emission per capita </t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Anz. Flüge</t>
+  </si>
+  <si>
+    <t>reduktion flüge</t>
+  </si>
+  <si>
+    <t>total redutkion emission</t>
+  </si>
+  <si>
+    <t>reductkion per year</t>
   </si>
 </sst>
 </file>
@@ -93,9 +111,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -105,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,16 +1054,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1360,20 +1388,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D463815-E0D2-41FA-9E0C-E185F05A96F0}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,11 +1419,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1412,14 +1442,14 @@
         <f>B2-B3</f>
         <v>70982.711099999957</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2022</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1130100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1427,132 +1457,132 @@
         <f>B2*0.937189</f>
         <v>1059117.2889</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2022</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1059117.2889</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2024</v>
       </c>
       <c r="B4">
-        <f>B3-$E$2</f>
+        <f t="shared" ref="B4:B9" si="0">B3-$E$2</f>
         <v>988134.57780000009</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2023</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1059117.2889</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2025</v>
       </c>
       <c r="B5">
-        <f>B4-$E$2</f>
+        <f t="shared" si="0"/>
         <v>917151.86670000013</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2023</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>988134.57780000009</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2026</v>
       </c>
       <c r="B6">
-        <f>B5-$E$2</f>
+        <f t="shared" si="0"/>
         <v>846169.15560000017</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2024</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>988134.57780000009</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2027</v>
       </c>
       <c r="B7">
-        <f>B6-$E$2</f>
+        <f t="shared" si="0"/>
         <v>775186.44450000022</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>2024</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>917151.86670000013</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2028</v>
       </c>
       <c r="B8">
-        <f>B7-$E$2</f>
+        <f t="shared" si="0"/>
         <v>704203.73340000026</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>2025</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>917151.86670000013</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2029</v>
       </c>
       <c r="B9">
-        <f>B8-$E$2</f>
+        <f t="shared" si="0"/>
         <v>633221.0223000003</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2025</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>846169.15560000017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2030</v>
       </c>
       <c r="B10">
         <v>562245.5</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>2026</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>846169.15560000017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>2026</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>775186.44450000022</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -1566,98 +1596,102 @@
         <f>C12/8</f>
         <v>12.031435</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>2027</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>775186.44450000022</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
       <c r="B13">
         <v>1059117.2889</v>
       </c>
-      <c r="G13">
+      <c r="D13">
+        <f>100-D12</f>
+        <v>87.968564999999998</v>
+      </c>
+      <c r="I13">
         <v>2027</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>704203.73340000026</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
         <v>988134.57780000009</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>2028</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>704203.73340000026</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2025</v>
       </c>
       <c r="B15">
         <v>917151.86670000013</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>2028</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>633221.0223000003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2026</v>
       </c>
       <c r="B16">
         <v>846169.15560000017</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>2029</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>633221.0223000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2027</v>
       </c>
       <c r="B17">
         <v>775186.44450000022</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>2029</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>562245.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2028</v>
       </c>
       <c r="B18">
         <v>704203.73340000026</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>2030</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>562245.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2029</v>
       </c>
@@ -1665,7 +1699,7 @@
         <v>633221.0223000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2030</v>
       </c>
@@ -1673,9 +1707,343 @@
         <v>562245.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="B24">
+        <v>1197433.3</v>
+      </c>
+      <c r="C24">
+        <f>(1197433.3-562245.5)/1197433.3*100</f>
+        <v>53.045777163538041</v>
+      </c>
+      <c r="D24">
+        <f>C24/8</f>
+        <v>6.6307221454422551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2030</v>
+      </c>
+      <c r="B32">
+        <v>562245.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2022</v>
+      </c>
+      <c r="B36">
+        <f>C36/D36</f>
+        <v>0.13736971532404604</v>
+      </c>
+      <c r="C36">
+        <v>226.79740000000001</v>
+      </c>
+      <c r="D36">
+        <v>1651</v>
+      </c>
+      <c r="E36">
+        <v>2601</v>
+      </c>
+      <c r="F36">
+        <v>2503.5</v>
+      </c>
+      <c r="G36">
+        <f>C36/E36*F36</f>
+        <v>218.29576735870819</v>
+      </c>
+      <c r="H36">
+        <f>B36-B37</f>
+        <v>1.6621735554209566E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="J36">
+        <v>0.13736971532404604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37">
+        <f>B36*0.879</f>
+        <v>0.12074797976983648</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2022</v>
+      </c>
+      <c r="J37">
+        <v>0.12074797976983648</v>
+      </c>
+      <c r="K37">
+        <v>0.13736971532404604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <f>B37-$H$36</f>
+        <v>0.10412624421562691</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="J38">
+        <v>0.12074797976983648</v>
+      </c>
+      <c r="K38">
+        <v>0.12074797976983648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2025</v>
+      </c>
+      <c r="B39">
+        <f>B38-$H$36</f>
+        <v>8.7504508661417346E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="J39">
+        <v>0.10412624421562691</v>
+      </c>
+      <c r="K39">
+        <v>0.10412624421562691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2026</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:B43" si="1">B39-$H$36</f>
+        <v>7.088277310720778E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2024</v>
+      </c>
+      <c r="J40">
+        <v>0.10412624421562691</v>
+      </c>
+      <c r="K40">
+        <v>8.7504508661417346E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2027</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>5.4261037552998215E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2024</v>
+      </c>
+      <c r="J41">
+        <v>8.7504508661417346E-2</v>
+      </c>
+      <c r="K41">
+        <v>7.088277310720778E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2028</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>3.7639301998788649E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2025</v>
+      </c>
+      <c r="J42">
+        <v>8.7504508661417346E-2</v>
+      </c>
+      <c r="K42">
+        <v>5.4261037552998215E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2029</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>2.1017566444579083E-2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2025</v>
+      </c>
+      <c r="J43">
+        <v>7.088277310720778E-2</v>
+      </c>
+      <c r="K43">
+        <v>3.7639301998788649E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2030</v>
+      </c>
+      <c r="B44">
+        <f>C44/D36</f>
+        <v>5.1493837924238769E-3</v>
+      </c>
+      <c r="C44">
+        <f>C36-G36</f>
+        <v>8.5016326412918204</v>
+      </c>
+      <c r="E44">
+        <v>97.5</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J44">
+        <v>7.088277310720778E-2</v>
+      </c>
+      <c r="K44">
+        <v>2.1017566444579083E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I45" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J45">
+        <v>5.4261037552998215E-2</v>
+      </c>
+      <c r="K45">
+        <v>5.1493837924238769E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I46" s="2">
+        <v>2027</v>
+      </c>
+      <c r="J46">
+        <v>5.4261037552998215E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="2">
+        <v>2027</v>
+      </c>
+      <c r="J47">
+        <v>3.7639301998788649E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I48" s="2">
+        <v>2028</v>
+      </c>
+      <c r="J48">
+        <v>3.7639301998788649E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="2">
+        <v>2028</v>
+      </c>
+      <c r="J49">
+        <v>2.1017566444579083E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="2">
+        <v>2029</v>
+      </c>
+      <c r="J50">
+        <v>2.1017566444579083E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="2">
+        <v>2029</v>
+      </c>
+      <c r="J51">
+        <v>5.1493837924238769E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="2">
+        <v>2030</v>
+      </c>
+      <c r="J52">
+        <v>5.1493837924238769E-3</v>
       </c>
     </row>
   </sheetData>

--- a/R/recuction_emission_per_capita.xlsx
+++ b/R/recuction_emission_per_capita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ee1c5c25fb64308/Dokumente/GitHub/GEO885/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{6FC1AC35-7FF8-41F1-A517-631D3F746AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003F38BD-74DB-4B5D-B9A0-6085344402C9}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{6FC1AC35-7FF8-41F1-A517-631D3F746AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF78591-A432-4C9E-A53C-C4950F2297C5}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B5B9485F-0C94-4C3B-9F68-C929287F1A42}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="16920" windowHeight="10450" xr2:uid="{B5B9485F-0C94-4C3B-9F68-C929287F1A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,20 +567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D463815-E0D2-41FA-9E0C-E185F05A96F0}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="8" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="8" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -626,7 +626,7 @@
         <v>1130100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1059117.2889</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2024</v>
       </c>
@@ -656,7 +656,7 @@
         <v>1059117.2889</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -671,7 +671,7 @@
         <v>988134.57780000009</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2026</v>
       </c>
@@ -686,7 +686,7 @@
         <v>988134.57780000009</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2027</v>
       </c>
@@ -701,7 +701,7 @@
         <v>917151.86670000013</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2028</v>
       </c>
@@ -716,7 +716,7 @@
         <v>917151.86670000013</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2029</v>
       </c>
@@ -731,7 +731,7 @@
         <v>846169.15560000017</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2030</v>
       </c>
@@ -745,7 +745,7 @@
         <v>846169.15560000017</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,7 +759,7 @@
         <v>775186.44450000022</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -783,7 +783,7 @@
         <v>775186.44450000022</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -805,7 +805,7 @@
         <v>704203.73340000026</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -819,7 +819,7 @@
         <v>704203.73340000026</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2025</v>
       </c>
@@ -833,7 +833,7 @@
         <v>633221.0223000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2026</v>
       </c>
@@ -847,7 +847,7 @@
         <v>633221.0223000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2027</v>
       </c>
@@ -861,7 +861,7 @@
         <v>562245.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2028</v>
       </c>
@@ -875,7 +875,7 @@
         <v>562245.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2029</v>
       </c>
@@ -883,7 +883,7 @@
         <v>633221.0223000003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2030</v>
       </c>
@@ -891,7 +891,7 @@
         <v>562245.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -907,42 +907,42 @@
         <v>6.6307221454422551</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2026</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2028</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2029</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -950,7 +950,7 @@
         <v>562245.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2022</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2023</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.13736971532404604</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0.12074797976983648</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2025</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0.10412624421562691</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>2026</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8.7504508661417346E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>2027</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>7.088277310720778E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>2028</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>5.4261037552998215E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>2029</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>3.7639301998788649E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2030</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2.1017566444579083E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1231,7 +1231,7 @@
         <v>5.1493837924238769E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>2022</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>136064.03999999992</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2023</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>-11.031435</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>2024</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>87.968564999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>2025</v>
       </c>
@@ -1425,12 +1425,12 @@
         <v>721907.88000000024</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>2026</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:D62" si="2">C57+12.031435</f>
+        <f t="shared" ref="C58:C62" si="2">C57+12.031435</f>
         <v>48.12574</v>
       </c>
       <c r="E58">
@@ -1438,7 +1438,7 @@
         <v>585843.84000000032</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>2027</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>449779.8000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>2028</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>313715.76000000047</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>2029</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>177651.72000000055</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>2030</v>
       </c>
@@ -1499,13 +1499,13 @@
         <v>562245.5</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67">
         <f>100-F69</f>
         <v>89.305391111111106</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F69">
         <v>10.694608888888888</v>
       </c>
@@ -1520,13 +1520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81E0C76-4205-4C00-913E-145E0D8CE164}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14"/>
     </row>
   </sheetData>
